--- a/backend/shipping/data/success.xlsx
+++ b/backend/shipping/data/success.xlsx
@@ -23,13 +23,13 @@
     <t>Date</t>
   </si>
   <si>
-    <t>90001493072</t>
+    <t>90001507982</t>
   </si>
   <si>
-    <t>CR176807029426</t>
+    <t>CR176882775326</t>
   </si>
   <si>
-    <t>2026-01-11T00:08:29.6442136</t>
+    <t>2026-01-19T13:03:42.242138524</t>
   </si>
 </sst>
 </file>
